--- a/Testcase Template.xlsx
+++ b/Testcase Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-R\Manul testing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600214B3-BD3E-4BAD-BB57-48AA98977C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430340EF-A1C6-48DD-909A-941A11833EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RTM" sheetId="2" r:id="rId1"/>
+    <sheet name="TestCase" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Execution Report" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>Project Name:</t>
   </si>
@@ -77,9 +78,6 @@
   </si>
   <si>
     <t>TC_01</t>
-  </si>
-  <si>
-    <t>Req_01</t>
   </si>
   <si>
     <t>Failed</t>
@@ -114,16 +112,10 @@
     <t>After clicking cancel icon, checkin date gets reset</t>
   </si>
   <si>
-    <t>After clicking cancel icon, both checkin and ckeckout date got reset</t>
-  </si>
-  <si>
     <t>Search Bar</t>
   </si>
   <si>
     <t>TC_02</t>
-  </si>
-  <si>
-    <t>Req_02</t>
   </si>
   <si>
     <t>Validating dropdown values getting selected on top right search bar at home screen</t>
@@ -153,9 +145,6 @@
   </si>
   <si>
     <t>TC_03</t>
-  </si>
-  <si>
-    <t>Req_03</t>
   </si>
   <si>
     <t>Validating the search module of property review section for translated keyword</t>
@@ -188,13 +177,7 @@
     <t>Search filter works for the translated keyword in the review section</t>
   </si>
   <si>
-    <t>Defect_Id_03</t>
-  </si>
-  <si>
     <t>TC_04</t>
-  </si>
-  <si>
-    <t>Req_04</t>
   </si>
   <si>
     <t>Validating property_type filter is working when applied first and searched for the location later</t>
@@ -218,23 +201,164 @@
 guests=2</t>
   </si>
   <si>
-    <t>Property type filter is applied on the search results</t>
-  </si>
-  <si>
-    <t>Property type filter is not applied on the search results</t>
-  </si>
-  <si>
-    <t>Defect_id_04</t>
-  </si>
-  <si>
     <t>When user tries to cancel checkin  date after selecting the checkin date. Checkin date should reset.</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Requirement ID</t>
+  </si>
+  <si>
+    <t>Requirement Description</t>
+  </si>
+  <si>
+    <t>Requirement Type</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Execution Status</t>
+  </si>
+  <si>
+    <t>Defect ID</t>
+  </si>
+  <si>
+    <t>Requirement Status</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>R-101</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>R-102</t>
+  </si>
+  <si>
+    <t>Password must be 8+ characters</t>
+  </si>
+  <si>
+    <t>Non-Functional</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>Verify password length check</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>D-005</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Validation issue</t>
+  </si>
+  <si>
+    <t>R-103</t>
+  </si>
+  <si>
+    <t>User can reset password</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>Verify password reset email flow</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>To be tested</t>
+  </si>
+  <si>
+    <t>R-104</t>
+  </si>
+  <si>
+    <t>Dashboard should load in 3s</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>Measure dashboard load time</t>
+  </si>
+  <si>
+    <t>Performance OK</t>
+  </si>
+  <si>
+    <t>User is able to search on basis of partial keywords eg  new mug should show result for  mug</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Validating User is able to search on basis of partial keywords eg  new mug should show result for  mug</t>
+  </si>
+  <si>
+    <t>D-001</t>
+  </si>
+  <si>
+    <t>Not working correctly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,6 +412,30 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -321,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -329,11 +477,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -375,61 +538,77 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,11 +889,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA10C27-F621-41CF-B580-E20867376095}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.5546875" defaultRowHeight="32.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="126" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A3" zoomScale="91" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,13 +1098,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -738,13 +1113,13 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -753,13 +1128,13 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -768,11 +1143,11 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="12">
         <v>45719</v>
       </c>
@@ -783,11 +1158,11 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -796,72 +1171,72 @@
       <c r="I5" s="10"/>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="17" t="s">
+      <c r="T7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
       <c r="X7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="18" t="s">
+      <c r="AA7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
       <c r="AD7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="15" t="s">
+      <c r="AG7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AH7" s="15"/>
+      <c r="AH7" s="31"/>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -873,84 +1248,82 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
+      <c r="AG8" s="31"/>
+      <c r="AH8" s="31"/>
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="24" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
-      <c r="AA9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH9" s="16"/>
+      <c r="AA9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="25"/>
@@ -974,19 +1347,19 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
@@ -1010,19 +1383,19 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
@@ -1046,19 +1419,19 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
@@ -1082,19 +1455,19 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="25"/>
@@ -1118,89 +1491,89 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
     </row>
     <row r="15" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
       <c r="P15" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
-      <c r="AA15" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="30" t="s">
+      <c r="AA15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH15" s="31"/>
+      <c r="AH15" s="19"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
@@ -1212,31 +1585,31 @@
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
@@ -1248,31 +1621,31 @@
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
@@ -1284,31 +1657,31 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
@@ -1320,93 +1693,93 @@
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
     </row>
     <row r="20" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+        <v>39</v>
+      </c>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
       <c r="P20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
       <c r="T20" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
       <c r="W20" s="13"/>
       <c r="X20" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
-      <c r="AA20" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH20" s="29"/>
+      <c r="AA20" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH20" s="15"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
@@ -1414,35 +1787,35 @@
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="29"/>
-      <c r="AH21" s="29"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
@@ -1450,35 +1823,35 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -1486,35 +1859,35 @@
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
@@ -1522,221 +1895,215 @@
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
     </row>
     <row r="25" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
+      <c r="M25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
       <c r="P25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
       <c r="T25" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="13" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH25" s="29"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="15"/>
     </row>
     <row r="26" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
     </row>
     <row r="30" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
@@ -1753,25 +2120,25 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
       <c r="AG30" s="5"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1788,25 +2155,25 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
       <c r="AG31" s="5"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -1823,25 +2190,25 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
       <c r="AG32" s="5"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -1858,25 +2225,25 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
       <c r="AG33" s="5"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -1893,47 +2260,46 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
       <c r="AG34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="X25:Z29"/>
-    <mergeCell ref="AG25:AH29"/>
-    <mergeCell ref="AA30:AC34"/>
-    <mergeCell ref="AD9:AF14"/>
-    <mergeCell ref="AD15:AF19"/>
-    <mergeCell ref="AD20:AF24"/>
-    <mergeCell ref="AD25:AF29"/>
-    <mergeCell ref="AD30:AF34"/>
-    <mergeCell ref="AA25:AC29"/>
-    <mergeCell ref="AA20:AC24"/>
-    <mergeCell ref="X9:Z14"/>
-    <mergeCell ref="AG20:AH24"/>
-    <mergeCell ref="AG15:AH19"/>
-    <mergeCell ref="A30:C34"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="A25:C29"/>
-    <mergeCell ref="D25:E29"/>
-    <mergeCell ref="F25:H29"/>
-    <mergeCell ref="I25:L29"/>
-    <mergeCell ref="M25:O29"/>
+    <mergeCell ref="P15:S19"/>
+    <mergeCell ref="X15:Z19"/>
+    <mergeCell ref="M15:O19"/>
+    <mergeCell ref="AG7:AH8"/>
+    <mergeCell ref="AG9:AH14"/>
+    <mergeCell ref="T7:W8"/>
+    <mergeCell ref="AA7:AC8"/>
+    <mergeCell ref="AA9:AC14"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="F7:H8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A9:C14"/>
+    <mergeCell ref="I9:L14"/>
+    <mergeCell ref="P9:S14"/>
+    <mergeCell ref="M9:O14"/>
+    <mergeCell ref="T9:W14"/>
+    <mergeCell ref="D9:E14"/>
+    <mergeCell ref="F9:H14"/>
     <mergeCell ref="P25:S29"/>
     <mergeCell ref="T25:W29"/>
     <mergeCell ref="A15:C19"/>
@@ -1950,37 +2316,38 @@
     <mergeCell ref="P20:S24"/>
     <mergeCell ref="X20:Z24"/>
     <mergeCell ref="I15:L19"/>
-    <mergeCell ref="A9:C14"/>
-    <mergeCell ref="I9:L14"/>
-    <mergeCell ref="P9:S14"/>
-    <mergeCell ref="M9:O14"/>
-    <mergeCell ref="T9:W14"/>
-    <mergeCell ref="D9:E14"/>
-    <mergeCell ref="F9:H14"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="F7:H8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="P15:S19"/>
-    <mergeCell ref="X15:Z19"/>
-    <mergeCell ref="M15:O19"/>
-    <mergeCell ref="AG7:AH8"/>
-    <mergeCell ref="AG9:AH14"/>
-    <mergeCell ref="T7:W8"/>
-    <mergeCell ref="AA7:AC8"/>
-    <mergeCell ref="AA9:AC14"/>
+    <mergeCell ref="A25:C29"/>
+    <mergeCell ref="D25:E29"/>
+    <mergeCell ref="F25:H29"/>
+    <mergeCell ref="I25:L29"/>
+    <mergeCell ref="M25:O29"/>
+    <mergeCell ref="A30:C34"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="X25:Z29"/>
+    <mergeCell ref="AG25:AH29"/>
+    <mergeCell ref="AA30:AC34"/>
+    <mergeCell ref="AD9:AF14"/>
+    <mergeCell ref="AD15:AF19"/>
+    <mergeCell ref="AD20:AF24"/>
+    <mergeCell ref="AD25:AF29"/>
+    <mergeCell ref="AD30:AF34"/>
+    <mergeCell ref="AA25:AC29"/>
+    <mergeCell ref="AA20:AC24"/>
+    <mergeCell ref="X9:Z14"/>
+    <mergeCell ref="AG20:AH24"/>
+    <mergeCell ref="AG15:AH19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA10C27-F621-41CF-B580-E20867376095}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65822EA-F51C-40CC-8018-2A97B2C03E26}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
